--- a/training/output/CNN/W/W0_W3.xlsx
+++ b/training/output/CNN/W/W0_W3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,802 +447,1602 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.4648164335664335</v>
+        <v>0.1160416666666667</v>
       </c>
       <c r="B2" t="n">
-        <v>3.02082080190832</v>
+        <v>3.18882167339325</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.7344842657342657</v>
+        <v>0.278125</v>
       </c>
       <c r="B3" t="n">
-        <v>2.327202688563954</v>
+        <v>2.921694219112396</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.7884615384615384</v>
+        <v>0.2495833333333334</v>
       </c>
       <c r="B4" t="n">
-        <v>2.082498799670826</v>
+        <v>2.879619836807251</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.816215034965035</v>
+        <v>0.3227083333333333</v>
       </c>
       <c r="B5" t="n">
-        <v>1.912639168175784</v>
+        <v>2.8273064494133</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.8389423076923077</v>
+        <v>0.3075</v>
       </c>
       <c r="B6" t="n">
-        <v>1.793303999033841</v>
+        <v>2.778423607349396</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.8389423076923077</v>
+        <v>0.325625</v>
       </c>
       <c r="B7" t="n">
-        <v>1.73924058675766</v>
+        <v>2.734345674514771</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.847465034965035</v>
+        <v>0.318125</v>
       </c>
       <c r="B8" t="n">
-        <v>1.722408468073065</v>
+        <v>2.732036292552948</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8594842657342657</v>
+        <v>0.3204166666666667</v>
       </c>
       <c r="B9" t="n">
-        <v>1.671966991641305</v>
+        <v>2.698473632335663</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.865166083916084</v>
+        <v>0.333125</v>
       </c>
       <c r="B10" t="n">
-        <v>1.6238865906542</v>
+        <v>2.648844063282013</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.8708479020979021</v>
+        <v>0.345625</v>
       </c>
       <c r="B11" t="n">
-        <v>1.580825811082667</v>
+        <v>2.61430025100708</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.836756993006993</v>
+        <v>0.318125</v>
       </c>
       <c r="B12" t="n">
-        <v>1.601628796620802</v>
+        <v>2.597455382347107</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.833916083916084</v>
+        <v>0.3304166666666667</v>
       </c>
       <c r="B13" t="n">
-        <v>1.578249259428544</v>
+        <v>2.593521237373352</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.8105332167832168</v>
+        <v>0.345625</v>
       </c>
       <c r="B14" t="n">
-        <v>1.589362930167805</v>
+        <v>2.608557641506195</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.8389423076923077</v>
+        <v>0.3510416666666667</v>
       </c>
       <c r="B15" t="n">
-        <v>1.562352364713495</v>
+        <v>2.60344660282135</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.8645104895104896</v>
+        <v>0.330625</v>
       </c>
       <c r="B16" t="n">
-        <v>1.54268199747259</v>
+        <v>2.575804054737091</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.8594842657342657</v>
+        <v>0.3329166666666667</v>
       </c>
       <c r="B17" t="n">
-        <v>1.506263429468328</v>
+        <v>2.511830449104309</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.8538024475524476</v>
+        <v>0.3535416666666667</v>
       </c>
       <c r="B18" t="n">
-        <v>1.547692293470556</v>
+        <v>2.480118572711945</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.8708479020979021</v>
+        <v>0.3533333333333333</v>
       </c>
       <c r="B19" t="n">
-        <v>1.471901465546001</v>
+        <v>2.466428339481354</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.8708479020979021</v>
+        <v>0.325625</v>
       </c>
       <c r="B20" t="n">
-        <v>1.475277879021385</v>
+        <v>2.480470418930054</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.865166083916084</v>
+        <v>0.3508333333333333</v>
       </c>
       <c r="B21" t="n">
-        <v>1.460224856029857</v>
+        <v>2.426144540309906</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.8765297202797203</v>
+        <v>0.340625</v>
       </c>
       <c r="B22" t="n">
-        <v>1.452604727311568</v>
+        <v>2.419883668422699</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.868006993006993</v>
+        <v>0.330625</v>
       </c>
       <c r="B23" t="n">
-        <v>1.455605067990043</v>
+        <v>2.450881779193878</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.8566433566433567</v>
+        <v>0.333125</v>
       </c>
       <c r="B24" t="n">
-        <v>1.500236673788591</v>
+        <v>2.397939920425415</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.833916083916084</v>
+        <v>0.34875</v>
       </c>
       <c r="B25" t="n">
-        <v>1.459057764573531</v>
+        <v>2.392340004444122</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.8708479020979021</v>
+        <v>0.3741666666666667</v>
       </c>
       <c r="B26" t="n">
-        <v>1.465201323682612</v>
+        <v>2.381942927837372</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.8105332167832168</v>
+        <v>0.363125</v>
       </c>
       <c r="B27" t="n">
-        <v>1.556612312793732</v>
+        <v>2.417562067508698</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.8538024475524476</v>
+        <v>0.3664583333333333</v>
       </c>
       <c r="B28" t="n">
-        <v>1.452128540385853</v>
+        <v>2.367339253425598</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.8708479020979021</v>
+        <v>0.363125</v>
       </c>
       <c r="B29" t="n">
-        <v>1.453996446999636</v>
+        <v>2.337412178516388</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8793706293706294</v>
+        <v>0.3558333333333333</v>
       </c>
       <c r="B30" t="n">
-        <v>1.46506926688281</v>
+        <v>2.326442837715149</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.8708479020979021</v>
+        <v>0.3814583333333333</v>
       </c>
       <c r="B31" t="n">
-        <v>1.434675162488764</v>
+        <v>2.332749903202057</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.865166083916084</v>
+        <v>0.3829166666666667</v>
       </c>
       <c r="B32" t="n">
-        <v>1.437105596065521</v>
+        <v>2.395748317241669</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.868006993006993</v>
+        <v>0.37125</v>
       </c>
       <c r="B33" t="n">
-        <v>1.427839631384069</v>
+        <v>2.360032141208649</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.8736888111888113</v>
+        <v>0.4395833333333333</v>
       </c>
       <c r="B34" t="n">
-        <v>1.430432411757383</v>
+        <v>2.331066131591797</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.8736888111888113</v>
+        <v>0.3964583333333333</v>
       </c>
       <c r="B35" t="n">
-        <v>1.435626723549583</v>
+        <v>2.290420114994049</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.8793706293706294</v>
+        <v>0.3789583333333333</v>
       </c>
       <c r="B36" t="n">
-        <v>1.422370059923692</v>
+        <v>2.278175234794617</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.8765297202797203</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="B37" t="n">
-        <v>1.421155685728247</v>
+        <v>2.277869045734406</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.8736888111888113</v>
+        <v>0.4514583333333333</v>
       </c>
       <c r="B38" t="n">
-        <v>1.428097025914626</v>
+        <v>2.294492065906525</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.8793706293706294</v>
+        <v>0.4320833333333333</v>
       </c>
       <c r="B39" t="n">
-        <v>1.41574982621453</v>
+        <v>2.291060268878937</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.8822115384615384</v>
+        <v>0.4270833333333333</v>
       </c>
       <c r="B40" t="n">
-        <v>1.414081681858409</v>
+        <v>2.315750122070312</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.8765297202797203</v>
+        <v>0.461875</v>
       </c>
       <c r="B41" t="n">
-        <v>1.414607378569516</v>
+        <v>2.318874955177307</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.8708479020979021</v>
+        <v>0.4241666666666667</v>
       </c>
       <c r="B42" t="n">
-        <v>1.424890745769847</v>
+        <v>2.220095276832581</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.865166083916084</v>
+        <v>0.46375</v>
       </c>
       <c r="B43" t="n">
-        <v>1.411897285418077</v>
+        <v>2.236675322055817</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.8765297202797203</v>
+        <v>0.439375</v>
       </c>
       <c r="B44" t="n">
-        <v>1.42506022344936</v>
+        <v>2.210629343986511</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.8793706293706294</v>
+        <v>0.4570833333333333</v>
       </c>
       <c r="B45" t="n">
-        <v>1.425295629284599</v>
+        <v>2.180289089679718</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.8708479020979021</v>
+        <v>0.5066666666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>1.412785378369418</v>
+        <v>2.265459358692169</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.8822115384615384</v>
+        <v>0.5141666666666667</v>
       </c>
       <c r="B47" t="n">
-        <v>1.417609241875735</v>
+        <v>2.180755138397217</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.8822115384615384</v>
+        <v>0.485</v>
       </c>
       <c r="B48" t="n">
-        <v>1.409948928789659</v>
+        <v>2.164936006069183</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.8793706293706294</v>
+        <v>0.5291666666666667</v>
       </c>
       <c r="B49" t="n">
-        <v>1.410171275789087</v>
+        <v>2.145284533500671</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.8822115384615384</v>
+        <v>0.4920833333333333</v>
       </c>
       <c r="B50" t="n">
-        <v>1.40863573551178</v>
+        <v>2.11050933599472</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.8878933566433567</v>
+        <v>0.571875</v>
       </c>
       <c r="B51" t="n">
-        <v>1.409651122309945</v>
+        <v>2.094137221574783</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.8878933566433567</v>
+        <v>0.540625</v>
       </c>
       <c r="B52" t="n">
-        <v>1.410352360118519</v>
+        <v>2.138828277587891</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.8850524475524476</v>
+        <v>0.5297916666666667</v>
       </c>
       <c r="B53" t="n">
-        <v>1.406452162699266</v>
+        <v>2.106904447078705</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.8793706293706294</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="B54" t="n">
-        <v>1.409788651899858</v>
+        <v>2.082250326871872</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.8878933566433567</v>
+        <v>0.5722916666666666</v>
       </c>
       <c r="B55" t="n">
-        <v>1.420360364697196</v>
+        <v>2.063889592885971</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.8878933566433567</v>
+        <v>0.5747916666666666</v>
       </c>
       <c r="B56" t="n">
-        <v>1.409953523765911</v>
+        <v>2.040636003017426</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.8850524475524476</v>
+        <v>0.5439583333333333</v>
       </c>
       <c r="B57" t="n">
-        <v>1.408443965695121</v>
+        <v>2.009580820798874</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.8878933566433567</v>
+        <v>0.5795833333333333</v>
       </c>
       <c r="B58" t="n">
-        <v>1.407666829499331</v>
+        <v>2.001722574234009</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.8878933566433567</v>
+        <v>0.540625</v>
       </c>
       <c r="B59" t="n">
-        <v>1.406073115088723</v>
+        <v>2.038239151239395</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.8907342657342657</v>
+        <v>0.5870833333333333</v>
       </c>
       <c r="B60" t="n">
-        <v>1.403147112239491</v>
+        <v>2.006913721561432</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.8907342657342657</v>
+        <v>0.5922916666666667</v>
       </c>
       <c r="B61" t="n">
-        <v>1.403573859821666</v>
+        <v>2.022638261318207</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.8935751748251749</v>
+        <v>0.604375</v>
       </c>
       <c r="B62" t="n">
-        <v>1.405935525894165</v>
+        <v>2.000314176082611</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.8878933566433567</v>
+        <v>0.5639583333333333</v>
       </c>
       <c r="B63" t="n">
-        <v>1.402126935395327</v>
+        <v>2.014563590288162</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.8907342657342657</v>
+        <v>0.6375</v>
       </c>
       <c r="B64" t="n">
-        <v>1.422350477088582</v>
+        <v>1.966091156005859</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.8765297202797203</v>
+        <v>0.5952083333333333</v>
       </c>
       <c r="B65" t="n">
-        <v>1.405815384604714</v>
+        <v>1.994499653577805</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.8793706293706294</v>
+        <v>0.6397916666666666</v>
       </c>
       <c r="B66" t="n">
-        <v>1.405967717820948</v>
+        <v>1.934176921844482</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.8850524475524476</v>
+        <v>0.5441666666666666</v>
       </c>
       <c r="B67" t="n">
-        <v>1.402189796621149</v>
+        <v>2.041324853897095</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.8907342657342657</v>
+        <v>0.5716666666666667</v>
       </c>
       <c r="B68" t="n">
-        <v>1.404921640049327</v>
+        <v>1.986507773399353</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.8907342657342657</v>
+        <v>0.6325000000000001</v>
       </c>
       <c r="B69" t="n">
-        <v>1.402985816652125</v>
+        <v>1.999739140272141</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.8850524475524476</v>
+        <v>0.6066666666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>1.404025446284901</v>
+        <v>1.934726595878601</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.8793706293706294</v>
+        <v>0.6116666666666666</v>
       </c>
       <c r="B71" t="n">
-        <v>1.411636536771601</v>
+        <v>1.94245907664299</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.8850524475524476</v>
+        <v>0.6477083333333333</v>
       </c>
       <c r="B72" t="n">
-        <v>1.40277650681409</v>
+        <v>1.93195429444313</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.8793706293706294</v>
+        <v>0.5745833333333333</v>
       </c>
       <c r="B73" t="n">
-        <v>1.405046555128965</v>
+        <v>2.003025561571121</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.8878933566433567</v>
+        <v>0.6766666666666666</v>
       </c>
       <c r="B74" t="n">
-        <v>1.410642607645555</v>
+        <v>1.904842644929886</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.8736888111888113</v>
+        <v>0.6166666666666666</v>
       </c>
       <c r="B75" t="n">
-        <v>1.427311382510445</v>
+        <v>1.907349467277527</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.8566433566433567</v>
+        <v>0.5914583333333334</v>
       </c>
       <c r="B76" t="n">
-        <v>1.414384592663158</v>
+        <v>1.939461201429367</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.8708479020979021</v>
+        <v>0.6877083333333334</v>
       </c>
       <c r="B77" t="n">
-        <v>1.41160374879837</v>
+        <v>1.884896457195282</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.8850524475524476</v>
+        <v>0.5916666666666666</v>
       </c>
       <c r="B78" t="n">
-        <v>1.406761304898696</v>
+        <v>1.870817273855209</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.8594842657342657</v>
+        <v>0.6222916666666666</v>
       </c>
       <c r="B79" t="n">
-        <v>1.415773489258506</v>
+        <v>1.899920254945755</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.8736888111888113</v>
+        <v>0.6222916666666666</v>
       </c>
       <c r="B80" t="n">
-        <v>1.405326702378013</v>
+        <v>1.874127298593521</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.8793706293706294</v>
+        <v>0.65</v>
       </c>
       <c r="B81" t="n">
-        <v>1.404672140424902</v>
+        <v>1.834666520357132</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.8850524475524476</v>
+        <v>0.61</v>
       </c>
       <c r="B82" t="n">
-        <v>1.402391043576327</v>
+        <v>1.918219774961472</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.8765297202797203</v>
+        <v>0.6279166666666667</v>
       </c>
       <c r="B83" t="n">
-        <v>1.404229191216555</v>
+        <v>1.803762137889862</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.8708479020979021</v>
+        <v>0.6527083333333333</v>
       </c>
       <c r="B84" t="n">
-        <v>1.401715007695285</v>
+        <v>1.824225574731827</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.8793706293706294</v>
+        <v>0.6295833333333334</v>
       </c>
       <c r="B85" t="n">
-        <v>1.399775076996196</v>
+        <v>1.839211195707321</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.8736888111888113</v>
+        <v>0.605</v>
       </c>
       <c r="B86" t="n">
-        <v>1.401933355764909</v>
+        <v>1.791498601436615</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.8822115384615384</v>
+        <v>0.6479166666666666</v>
       </c>
       <c r="B87" t="n">
-        <v>1.404184281826019</v>
+        <v>1.795435935258865</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.8850524475524476</v>
+        <v>0.594375</v>
       </c>
       <c r="B88" t="n">
-        <v>1.420473759824579</v>
+        <v>1.794995337724686</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.8004807692307693</v>
+        <v>0.6125</v>
       </c>
       <c r="B89" t="n">
-        <v>1.494624815203927</v>
+        <v>1.787695854902267</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.8758741258741259</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="B90" t="n">
-        <v>1.408259288831191</v>
+        <v>1.848022162914276</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.8793706293706294</v>
+        <v>0.6829166666666667</v>
       </c>
       <c r="B91" t="n">
-        <v>1.407921238379045</v>
+        <v>1.780862510204315</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.8566433566433567</v>
+        <v>0.6477083333333334</v>
       </c>
       <c r="B92" t="n">
-        <v>1.429407851262526</v>
+        <v>1.844000488519669</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.8765297202797203</v>
+        <v>0.633125</v>
       </c>
       <c r="B93" t="n">
-        <v>1.401680924675681</v>
+        <v>1.760715484619141</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.8708479020979021</v>
+        <v>0.6274999999999999</v>
       </c>
       <c r="B94" t="n">
-        <v>1.400790057399056</v>
+        <v>1.775863438844681</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.865166083916084</v>
+        <v>0.6352083333333334</v>
       </c>
       <c r="B95" t="n">
-        <v>1.406170666217804</v>
+        <v>1.730047225952148</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.8708479020979021</v>
+        <v>0.65</v>
       </c>
       <c r="B96" t="n">
-        <v>1.402785826813091</v>
+        <v>1.765241473913193</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.868006993006993</v>
+        <v>0.63</v>
       </c>
       <c r="B97" t="n">
-        <v>1.403437332673506</v>
+        <v>1.848315387964249</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.8623251748251749</v>
+        <v>0.6329166666666667</v>
       </c>
       <c r="B98" t="n">
-        <v>1.396868060935627</v>
+        <v>1.728280574083328</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.8708479020979021</v>
+        <v>0.6902083333333333</v>
       </c>
       <c r="B99" t="n">
-        <v>1.40254241769964</v>
+        <v>1.774966239929199</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.8765297202797203</v>
+        <v>0.615</v>
       </c>
       <c r="B100" t="n">
-        <v>1.399328990416093</v>
+        <v>1.721892952919006</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.8736888111888113</v>
+        <v>0.6224999999999999</v>
       </c>
       <c r="B101" t="n">
-        <v>1.400156329978596</v>
+        <v>1.66084960103035</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1.644631505012512</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.6652083333333334</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1.663359522819519</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.6377083333333333</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1.652657866477966</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.6804166666666667</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1.651038199663162</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1.633844882249832</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.680625</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.596227496862411</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.6877083333333334</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1.633566558361053</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.750625</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1.602322518825531</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.7429166666666666</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1.59597709774971</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.743125</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1.579953640699387</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.748125</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.580849379301071</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.7935416666666667</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1.559736728668213</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.7535416666666667</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1.558859288692474</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.785625</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.560655504465103</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.753125</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.60361710190773</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.7887500000000001</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.524206876754761</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.7835416666666667</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1.507133096456528</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.8235416666666666</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1.520016759634018</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.7910416666666666</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1.51305690407753</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.8010416666666665</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1.481226474046707</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.8187500000000001</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1.474598735570908</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.79625</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1.487026989459991</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.8210416666666667</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1.449669718742371</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.80875</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1.474232286214828</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.8058333333333334</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1.43463996052742</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.80125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1.450778007507324</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1.510478973388672</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.8258333333333333</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1.429490029811859</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.8233333333333334</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1.409180611371994</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.82375</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1.463084608316422</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.82625</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1.370617508888245</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.8233333333333334</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1.302908271551132</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.8179166666666666</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1.326760113239288</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.8158333333333334</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1.313581436872482</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.8108333333333333</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1.29816871881485</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.823125</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1.301612138748169</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.7983333333333333</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1.348082780838013</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.7910416666666666</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1.349210798740387</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.8258333333333334</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1.269363254308701</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.83625</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1.234159767627716</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.8135416666666666</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1.354227274656296</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.8102083333333333</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1.340563207864761</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.8562500000000001</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1.277090549468994</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.8485416666666666</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1.207498908042908</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.8458333333333333</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1.240046918392181</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.8435416666666666</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1.195382088422775</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.8383333333333334</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1.160064727067947</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.8508333333333334</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1.196217775344849</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.8583333333333334</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1.191960901021957</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.8564583333333333</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1.153189897537231</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.8510416666666667</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1.164712697267532</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.8612500000000001</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1.226561278104782</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.84875</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1.103327691555023</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.8891666666666665</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1.112974286079407</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.8787499999999999</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1.117134809494019</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.87125</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1.103704154491425</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.906875</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1.071980178356171</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.87375</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1.070974886417389</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.8739583333333334</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1.116697669029236</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.8835416666666666</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1.12395566701889</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.89625</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1.058026283979416</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.8891666666666667</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1.104933530092239</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.8887499999999999</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1.048903673887253</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.86375</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1.042743310332298</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.9139583333333333</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1.058209419250488</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.9064583333333334</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1.006076008081436</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.8939583333333333</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1.025797456502914</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1.013503909111023</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.9143749999999999</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1.016574859619141</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.88125</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1.05155023932457</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.8887499999999999</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1.043255865573883</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.934375</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.9967750161886215</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.983087345957756</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.921875</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.9600383639335632</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.9316666666666666</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.9488550871610641</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.914375</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.978317528963089</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.9245833333333334</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.9705158621072769</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.906875</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1.070460319519043</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.9341666666666667</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.9646011590957642</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.9266666666666666</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.9556827694177628</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.9468749999999999</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.9432509243488312</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.9291666666666666</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.9450803101062775</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.944375</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.9102920293807983</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.9266666666666666</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.9312697798013687</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.946875</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.9062451124191284</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.9393750000000001</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.9020734578371048</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.9076290875673294</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.946875</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.8888042569160461</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.9293750000000001</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.9225731492042542</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.9570833333333334</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.8818604797124863</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.9370833333333334</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.8869362771511078</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.951875</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.8752881288528442</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.8925427198410034</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.944375</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.88510762155056</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9545833333333333</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.8838186264038086</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.9495833333333333</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.8669855445623398</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.9495833333333333</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.8759671151638031</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.9445833333333333</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.8568276911973953</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.9439583333333333</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.8918311148881912</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.9445833333333334</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.8723584115505219</v>
       </c>
     </row>
   </sheetData>
